--- a/tato-wordlist.xlsx
+++ b/tato-wordlist.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Русский - Тато" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Тато - русский" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Тато - Русский" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -23,10 +23,67 @@
     <t>Перевод</t>
   </si>
   <si>
+    <t>анио</t>
+  </si>
+  <si>
+    <t>сущ</t>
+  </si>
+  <si>
+    <t>тело</t>
+  </si>
+  <si>
+    <t>вахор</t>
+  </si>
+  <si>
+    <t>нар</t>
+  </si>
+  <si>
+    <t>вчера</t>
+  </si>
+  <si>
+    <t>гакио</t>
+  </si>
+  <si>
+    <t>город</t>
+  </si>
+  <si>
+    <t>гарио</t>
+  </si>
+  <si>
+    <t>герой</t>
+  </si>
+  <si>
+    <t>гитэй</t>
+  </si>
+  <si>
+    <t>гл</t>
+  </si>
+  <si>
+    <t>говорить</t>
+  </si>
+  <si>
+    <t>гишао</t>
+  </si>
+  <si>
+    <t>равновесие</t>
+  </si>
+  <si>
+    <t>гойсо</t>
+  </si>
+  <si>
+    <t>никогда</t>
+  </si>
+  <si>
+    <t>дайхо</t>
+  </si>
+  <si>
+    <t>всегда</t>
+  </si>
+  <si>
     <t>брат</t>
   </si>
   <si>
-    <t>сущ</t>
+    <t>данэй</t>
   </si>
   <si>
     <t>татао</t>
@@ -44,49 +101,28 @@
     <t>вместе</t>
   </si>
   <si>
-    <t>нар</t>
-  </si>
-  <si>
     <t>нойок</t>
   </si>
   <si>
     <t>враг</t>
   </si>
   <si>
+    <t>забывать</t>
+  </si>
+  <si>
     <t>зарао</t>
   </si>
   <si>
-    <t>всегда</t>
-  </si>
-  <si>
-    <t>дайхо</t>
-  </si>
-  <si>
-    <t>вчера</t>
-  </si>
-  <si>
-    <t>вахор</t>
-  </si>
-  <si>
-    <t>герой</t>
-  </si>
-  <si>
-    <t>гарио</t>
-  </si>
-  <si>
-    <t>говорить</t>
-  </si>
-  <si>
-    <t>гл</t>
-  </si>
-  <si>
-    <t>гитэй</t>
-  </si>
-  <si>
-    <t>город</t>
-  </si>
-  <si>
-    <t>гакио</t>
+    <t>датао</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>жизао</t>
+  </si>
+  <si>
+    <t>расслабленная жизнь</t>
   </si>
   <si>
     <t>дом</t>
@@ -95,81 +131,45 @@
     <t>отоа</t>
   </si>
   <si>
-    <t>друг</t>
-  </si>
-  <si>
-    <t>датао</t>
+    <t>жимьо</t>
+  </si>
+  <si>
+    <t>расслабленный</t>
   </si>
   <si>
     <t>Душа</t>
   </si>
   <si>
+    <t>занио</t>
+  </si>
+  <si>
     <t>парао</t>
   </si>
   <si>
     <t>жизнь</t>
   </si>
   <si>
-    <t>занио</t>
-  </si>
-  <si>
-    <t>анио</t>
-  </si>
-  <si>
-    <t>тело</t>
-  </si>
-  <si>
-    <t>забывать</t>
-  </si>
-  <si>
-    <t>гишао</t>
-  </si>
-  <si>
-    <t>данэй</t>
-  </si>
-  <si>
-    <t>равновесие</t>
-  </si>
-  <si>
     <t>завтра</t>
   </si>
   <si>
-    <t>гойсо</t>
+    <t>зариа</t>
   </si>
   <si>
     <t>нирон</t>
   </si>
   <si>
-    <t>никогда</t>
-  </si>
-  <si>
-    <t>жизао</t>
-  </si>
-  <si>
-    <t>расслабленная жизнь</t>
-  </si>
-  <si>
-    <t>жимьо</t>
-  </si>
-  <si>
-    <t>расслабленный</t>
-  </si>
-  <si>
     <t>зверь</t>
   </si>
   <si>
-    <t>зариа</t>
-  </si>
-  <si>
     <t>знать</t>
   </si>
   <si>
+    <t>золиа</t>
+  </si>
+  <si>
     <t>мадарэй</t>
   </si>
   <si>
-    <t>золиа</t>
-  </si>
-  <si>
     <t>Путь</t>
   </si>
   <si>
@@ -182,25 +182,37 @@
     <t>искать</t>
   </si>
   <si>
+    <t>ширэй</t>
+  </si>
+  <si>
+    <t>история</t>
+  </si>
+  <si>
     <t>ирио</t>
   </si>
   <si>
-    <t>ширэй</t>
+    <t>нисао</t>
   </si>
   <si>
     <t>предок</t>
   </si>
   <si>
+    <t>красивый</t>
+  </si>
+  <si>
     <t>йорэй</t>
   </si>
   <si>
-    <t>история</t>
+    <t>рунио</t>
   </si>
   <si>
     <t>менять</t>
   </si>
   <si>
-    <t>нисао</t>
+    <t>красота</t>
+  </si>
+  <si>
+    <t>рунао</t>
   </si>
   <si>
     <t>корао</t>
@@ -209,28 +221,28 @@
     <t>кровь</t>
   </si>
   <si>
-    <t>красивый</t>
+    <t>лицо</t>
   </si>
   <si>
     <t>карао</t>
   </si>
   <si>
+    <t>лалао</t>
+  </si>
+  <si>
     <t>ребенок</t>
   </si>
   <si>
-    <t>рунио</t>
-  </si>
-  <si>
-    <t>лалао</t>
-  </si>
-  <si>
-    <t>лицо</t>
-  </si>
-  <si>
-    <t>красота</t>
-  </si>
-  <si>
-    <t>рунао</t>
+    <t>любить</t>
+  </si>
+  <si>
+    <t>ливэй</t>
+  </si>
+  <si>
+    <t>мать</t>
+  </si>
+  <si>
+    <t>мамио</t>
   </si>
   <si>
     <t>ларэй</t>
@@ -239,85 +251,139 @@
     <t>таинство</t>
   </si>
   <si>
-    <t>ливэй</t>
-  </si>
-  <si>
-    <t>любить</t>
+    <t>мудрый</t>
+  </si>
+  <si>
+    <t>монуи</t>
+  </si>
+  <si>
+    <t>наставник</t>
+  </si>
+  <si>
+    <t>мадио</t>
+  </si>
+  <si>
+    <t>наука</t>
   </si>
   <si>
     <t>убивать</t>
   </si>
   <si>
-    <t>мадио</t>
-  </si>
-  <si>
-    <t>наставник</t>
-  </si>
-  <si>
-    <t>мамио</t>
-  </si>
-  <si>
-    <t>мать</t>
-  </si>
-  <si>
-    <t>мудрый</t>
-  </si>
-  <si>
-    <t>монуи</t>
+    <t>утао</t>
+  </si>
+  <si>
+    <t>небо</t>
+  </si>
+  <si>
+    <t>набиа</t>
+  </si>
+  <si>
+    <t>новый</t>
+  </si>
+  <si>
+    <t>найи</t>
+  </si>
+  <si>
+    <t>одиноко</t>
+  </si>
+  <si>
+    <t>овава</t>
+  </si>
+  <si>
+    <t>оружие</t>
   </si>
   <si>
     <t>мимэй</t>
   </si>
   <si>
+    <t>титао</t>
+  </si>
+  <si>
     <t>учиться</t>
   </si>
   <si>
-    <t>наука</t>
-  </si>
-  <si>
-    <t>утао</t>
-  </si>
-  <si>
-    <t>набиа</t>
-  </si>
-  <si>
-    <t>небо</t>
-  </si>
-  <si>
-    <t>найи</t>
-  </si>
-  <si>
-    <t>новый</t>
-  </si>
-  <si>
-    <t>овава</t>
-  </si>
-  <si>
-    <t>одиноко</t>
+    <t>отец</t>
+  </si>
+  <si>
+    <t>падио</t>
+  </si>
+  <si>
+    <t>помнить</t>
+  </si>
+  <si>
+    <t>тэрэй</t>
+  </si>
+  <si>
+    <t>противник</t>
+  </si>
+  <si>
+    <t>патио</t>
+  </si>
+  <si>
+    <t>развиваться</t>
+  </si>
+  <si>
+    <t>ригэй</t>
+  </si>
+  <si>
+    <t>разделение</t>
+  </si>
+  <si>
+    <t>харао</t>
+  </si>
+  <si>
+    <t>разделять</t>
+  </si>
+  <si>
+    <t>харэй</t>
+  </si>
+  <si>
+    <t>река</t>
+  </si>
+  <si>
+    <t>рукиа</t>
+  </si>
+  <si>
+    <t>сегодня</t>
+  </si>
+  <si>
+    <t>содор</t>
   </si>
   <si>
     <t>ойои</t>
   </si>
   <si>
+    <t>сестра</t>
+  </si>
+  <si>
     <t>старый</t>
   </si>
   <si>
-    <t>падио</t>
-  </si>
-  <si>
-    <t>отец</t>
-  </si>
-  <si>
-    <t>патио</t>
-  </si>
-  <si>
-    <t>оружие</t>
-  </si>
-  <si>
-    <t>противник</t>
-  </si>
-  <si>
-    <t>титао</t>
+    <t>сатао</t>
+  </si>
+  <si>
+    <t>сильный</t>
+  </si>
+  <si>
+    <t>сайи</t>
+  </si>
+  <si>
+    <t>скрывать</t>
+  </si>
+  <si>
+    <t>шонэй</t>
+  </si>
+  <si>
+    <t>слабый</t>
+  </si>
+  <si>
+    <t>хильо</t>
+  </si>
+  <si>
+    <t>солнце</t>
+  </si>
+  <si>
+    <t>солоа</t>
   </si>
   <si>
     <t>ранио</t>
@@ -326,76 +392,10 @@
     <t>учитель</t>
   </si>
   <si>
-    <t>помнить</t>
-  </si>
-  <si>
-    <t>ригэй</t>
-  </si>
-  <si>
-    <t>тэрэй</t>
-  </si>
-  <si>
-    <t>развиваться</t>
-  </si>
-  <si>
-    <t>рукиа</t>
-  </si>
-  <si>
-    <t>река</t>
-  </si>
-  <si>
-    <t>сайи</t>
-  </si>
-  <si>
-    <t>сильный</t>
-  </si>
-  <si>
-    <t>сатао</t>
-  </si>
-  <si>
-    <t>сестра</t>
-  </si>
-  <si>
-    <t>содор</t>
-  </si>
-  <si>
-    <t>сегодня</t>
-  </si>
-  <si>
-    <t>солоа</t>
-  </si>
-  <si>
-    <t>разделение</t>
-  </si>
-  <si>
-    <t>солнце</t>
-  </si>
-  <si>
-    <t>харао</t>
-  </si>
-  <si>
-    <t>разделять</t>
-  </si>
-  <si>
-    <t>харэй</t>
+    <t>умывать</t>
   </si>
   <si>
     <t>халэй</t>
-  </si>
-  <si>
-    <t>умывать</t>
-  </si>
-  <si>
-    <t>скрывать</t>
-  </si>
-  <si>
-    <t>шонэй</t>
-  </si>
-  <si>
-    <t>хильо</t>
-  </si>
-  <si>
-    <t>слабый</t>
   </si>
   <si>
     <t>жимйо</t>
@@ -473,178 +473,178 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -652,10 +652,10 @@
         <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -663,7 +663,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>54</v>
@@ -674,219 +674,219 @@
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -897,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -908,84 +908,84 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -996,147 +996,147 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>128</v>
@@ -1173,172 +1173,172 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -1352,7 +1352,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>53</v>
@@ -1360,98 +1360,98 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>49</v>
@@ -1459,172 +1459,172 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
@@ -1635,73 +1635,73 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -1712,120 +1712,120 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>55</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/tato-wordlist.xlsx
+++ b/tato-wordlist.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1679,19 +1679,36 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="0" t="inlineStr">
         <is>
           <t>убийца</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="0" t="inlineStr">
         <is>
           <t>ыыы</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="0" t="inlineStr">
         <is>
           <t>ффф</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>идиот</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>сущ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>идиото</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1723,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,19 +3061,36 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="0" t="inlineStr">
         <is>
           <t>убийца</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="0" t="inlineStr">
         <is>
           <t>ыыы</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="0" t="inlineStr">
         <is>
           <t>ффф</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>идиот</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>сущ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>идиото</t>
         </is>
       </c>
     </row>
